--- a/Team-Data/2007-08/2-23-2007-08.xlsx
+++ b/Team-Data/2007-08/2-23-2007-08.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -666,16 +733,16 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E2" t="n">
         <v>23</v>
       </c>
       <c r="F2" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G2" t="n">
-        <v>0.426</v>
+        <v>0.434</v>
       </c>
       <c r="H2" t="n">
         <v>48.6</v>
@@ -684,31 +751,31 @@
         <v>35.2</v>
       </c>
       <c r="J2" t="n">
-        <v>79.3</v>
+        <v>79.40000000000001</v>
       </c>
       <c r="K2" t="n">
-        <v>0.444</v>
+        <v>0.443</v>
       </c>
       <c r="L2" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="M2" t="n">
-        <v>11.8</v>
+        <v>11.7</v>
       </c>
       <c r="N2" t="n">
-        <v>0.336</v>
+        <v>0.333</v>
       </c>
       <c r="O2" t="n">
-        <v>21.1</v>
+        <v>21.2</v>
       </c>
       <c r="P2" t="n">
-        <v>27.2</v>
+        <v>27.4</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.774</v>
+        <v>0.773</v>
       </c>
       <c r="R2" t="n">
-        <v>12.5</v>
+        <v>12.6</v>
       </c>
       <c r="S2" t="n">
         <v>29.6</v>
@@ -720,7 +787,7 @@
         <v>21.2</v>
       </c>
       <c r="V2" t="n">
-        <v>15.4</v>
+        <v>15.3</v>
       </c>
       <c r="W2" t="n">
         <v>7.7</v>
@@ -729,7 +796,7 @@
         <v>5.8</v>
       </c>
       <c r="Y2" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="Z2" t="n">
         <v>21.4</v>
@@ -738,13 +805,13 @@
         <v>21.9</v>
       </c>
       <c r="AB2" t="n">
-        <v>95.40000000000001</v>
+        <v>95.5</v>
       </c>
       <c r="AC2" t="n">
-        <v>-2.2</v>
+        <v>-2.1</v>
       </c>
       <c r="AD2" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="AE2" t="n">
         <v>20</v>
@@ -753,7 +820,7 @@
         <v>18</v>
       </c>
       <c r="AG2" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AH2" t="n">
         <v>4</v>
@@ -774,10 +841,10 @@
         <v>29</v>
       </c>
       <c r="AN2" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AO2" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="AP2" t="n">
         <v>8</v>
@@ -792,7 +859,7 @@
         <v>23</v>
       </c>
       <c r="AT2" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AU2" t="n">
         <v>20</v>
@@ -807,13 +874,13 @@
         <v>3</v>
       </c>
       <c r="AY2" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AZ2" t="n">
         <v>17</v>
       </c>
       <c r="BA2" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BB2" t="n">
         <v>21</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>2-23-2007-08</t>
+          <t>2008-02-23</t>
         </is>
       </c>
     </row>
@@ -926,7 +993,7 @@
         <v>9.5</v>
       </c>
       <c r="AD3" t="n">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="AE3" t="n">
         <v>1</v>
@@ -959,7 +1026,7 @@
         <v>4</v>
       </c>
       <c r="AO3" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AP3" t="n">
         <v>7</v>
@@ -980,7 +1047,7 @@
         <v>11</v>
       </c>
       <c r="AV3" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AW3" t="n">
         <v>4</v>
@@ -989,10 +1056,10 @@
         <v>20</v>
       </c>
       <c r="AY3" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AZ3" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="BA3" t="n">
         <v>4</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>2-23-2007-08</t>
+          <t>2008-02-23</t>
         </is>
       </c>
     </row>
@@ -1030,55 +1097,55 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E4" t="n">
         <v>19</v>
       </c>
       <c r="F4" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G4" t="n">
-        <v>0.339</v>
+        <v>0.345</v>
       </c>
       <c r="H4" t="n">
         <v>48.6</v>
       </c>
       <c r="I4" t="n">
-        <v>35.6</v>
+        <v>35.5</v>
       </c>
       <c r="J4" t="n">
-        <v>79.59999999999999</v>
+        <v>79.7</v>
       </c>
       <c r="K4" t="n">
-        <v>0.447</v>
+        <v>0.446</v>
       </c>
       <c r="L4" t="n">
-        <v>6.1</v>
+        <v>6.2</v>
       </c>
       <c r="M4" t="n">
         <v>17.3</v>
       </c>
       <c r="N4" t="n">
-        <v>0.355</v>
+        <v>0.356</v>
       </c>
       <c r="O4" t="n">
         <v>18</v>
       </c>
       <c r="P4" t="n">
-        <v>25.6</v>
+        <v>25.7</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.704</v>
+        <v>0.703</v>
       </c>
       <c r="R4" t="n">
         <v>11.1</v>
       </c>
       <c r="S4" t="n">
-        <v>29.2</v>
+        <v>29.3</v>
       </c>
       <c r="T4" t="n">
-        <v>40.3</v>
+        <v>40.4</v>
       </c>
       <c r="U4" t="n">
         <v>21.3</v>
@@ -1087,7 +1154,7 @@
         <v>15.1</v>
       </c>
       <c r="W4" t="n">
-        <v>7.4</v>
+        <v>7.5</v>
       </c>
       <c r="X4" t="n">
         <v>5</v>
@@ -1096,16 +1163,16 @@
         <v>6</v>
       </c>
       <c r="Z4" t="n">
-        <v>22.3</v>
+        <v>22.4</v>
       </c>
       <c r="AA4" t="n">
-        <v>21.1</v>
+        <v>21.2</v>
       </c>
       <c r="AB4" t="n">
         <v>95.3</v>
       </c>
       <c r="AC4" t="n">
-        <v>-5.6</v>
+        <v>-5.4</v>
       </c>
       <c r="AD4" t="n">
         <v>3</v>
@@ -1120,7 +1187,7 @@
         <v>25</v>
       </c>
       <c r="AH4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AI4" t="n">
         <v>24</v>
@@ -1156,25 +1223,25 @@
         <v>27</v>
       </c>
       <c r="AT4" t="n">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="AU4" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AV4" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AW4" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AX4" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AY4" t="n">
         <v>30</v>
       </c>
       <c r="AZ4" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="BA4" t="n">
         <v>17</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>2-23-2007-08</t>
+          <t>2008-02-23</t>
         </is>
       </c>
     </row>
@@ -1290,7 +1357,7 @@
         <v>-2.6</v>
       </c>
       <c r="AD5" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="AE5" t="n">
         <v>21</v>
@@ -1302,7 +1369,7 @@
         <v>21</v>
       </c>
       <c r="AH5" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AI5" t="n">
         <v>21</v>
@@ -1329,7 +1396,7 @@
         <v>19</v>
       </c>
       <c r="AQ5" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AR5" t="n">
         <v>1</v>
@@ -1341,7 +1408,7 @@
         <v>6</v>
       </c>
       <c r="AU5" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AV5" t="n">
         <v>14</v>
@@ -1356,7 +1423,7 @@
         <v>27</v>
       </c>
       <c r="AZ5" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BA5" t="n">
         <v>14</v>
@@ -1365,7 +1432,7 @@
         <v>20</v>
       </c>
       <c r="BC5" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="BD5" t="n">
         <v>10</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>2-23-2007-08</t>
+          <t>2008-02-23</t>
         </is>
       </c>
     </row>
@@ -1472,7 +1539,7 @@
         <v>-1.2</v>
       </c>
       <c r="AD6" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="AE6" t="n">
         <v>13</v>
@@ -1493,7 +1560,7 @@
         <v>10</v>
       </c>
       <c r="AK6" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AL6" t="n">
         <v>11</v>
@@ -1508,13 +1575,13 @@
         <v>19</v>
       </c>
       <c r="AP6" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AQ6" t="n">
         <v>27</v>
       </c>
       <c r="AR6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AS6" t="n">
         <v>12</v>
@@ -1541,7 +1608,7 @@
         <v>20</v>
       </c>
       <c r="BA6" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="BB6" t="n">
         <v>16</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>2-23-2007-08</t>
+          <t>2008-02-23</t>
         </is>
       </c>
     </row>
@@ -1654,10 +1721,10 @@
         <v>3.9</v>
       </c>
       <c r="AD7" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="AE7" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AF7" t="n">
         <v>7</v>
@@ -1666,10 +1733,10 @@
         <v>7</v>
       </c>
       <c r="AH7" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AI7" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AJ7" t="n">
         <v>26</v>
@@ -1678,7 +1745,7 @@
         <v>7</v>
       </c>
       <c r="AL7" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AM7" t="n">
         <v>20</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>2-23-2007-08</t>
+          <t>2008-02-23</t>
         </is>
       </c>
     </row>
@@ -1758,16 +1825,16 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E8" t="n">
         <v>33</v>
       </c>
       <c r="F8" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G8" t="n">
-        <v>0.6</v>
+        <v>0.611</v>
       </c>
       <c r="H8" t="n">
         <v>48.5</v>
@@ -1776,7 +1843,7 @@
         <v>38.8</v>
       </c>
       <c r="J8" t="n">
-        <v>85.3</v>
+        <v>85.2</v>
       </c>
       <c r="K8" t="n">
         <v>0.455</v>
@@ -1794,49 +1861,49 @@
         <v>23.3</v>
       </c>
       <c r="P8" t="n">
-        <v>30.7</v>
+        <v>30.6</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.759</v>
+        <v>0.76</v>
       </c>
       <c r="R8" t="n">
-        <v>12</v>
+        <v>12.1</v>
       </c>
       <c r="S8" t="n">
         <v>32.6</v>
       </c>
       <c r="T8" t="n">
-        <v>44.6</v>
+        <v>44.7</v>
       </c>
       <c r="U8" t="n">
-        <v>23.5</v>
+        <v>23.6</v>
       </c>
       <c r="V8" t="n">
         <v>15.5</v>
       </c>
       <c r="W8" t="n">
-        <v>9.4</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="X8" t="n">
-        <v>7.2</v>
+        <v>7.1</v>
       </c>
       <c r="Y8" t="n">
         <v>5.1</v>
       </c>
       <c r="Z8" t="n">
-        <v>21.2</v>
+        <v>21.1</v>
       </c>
       <c r="AA8" t="n">
         <v>24.1</v>
       </c>
       <c r="AB8" t="n">
-        <v>107.3</v>
+        <v>107.2</v>
       </c>
       <c r="AC8" t="n">
-        <v>2.3</v>
+        <v>2.5</v>
       </c>
       <c r="AD8" t="n">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="AE8" t="n">
         <v>11</v>
@@ -1848,7 +1915,7 @@
         <v>11</v>
       </c>
       <c r="AH8" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AI8" t="n">
         <v>5</v>
@@ -1860,13 +1927,13 @@
         <v>15</v>
       </c>
       <c r="AL8" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AM8" t="n">
         <v>13</v>
       </c>
       <c r="AN8" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AO8" t="n">
         <v>1</v>
@@ -1875,10 +1942,10 @@
         <v>1</v>
       </c>
       <c r="AQ8" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AR8" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AS8" t="n">
         <v>3</v>
@@ -1902,7 +1969,7 @@
         <v>20</v>
       </c>
       <c r="AZ8" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="BA8" t="n">
         <v>1</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>2-23-2007-08</t>
+          <t>2008-02-23</t>
         </is>
       </c>
     </row>
@@ -2018,7 +2085,7 @@
         <v>7.7</v>
       </c>
       <c r="AD9" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="AE9" t="n">
         <v>2</v>
@@ -2030,7 +2097,7 @@
         <v>2</v>
       </c>
       <c r="AH9" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AI9" t="n">
         <v>14</v>
@@ -2039,7 +2106,7 @@
         <v>18</v>
       </c>
       <c r="AK9" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AL9" t="n">
         <v>18</v>
@@ -2057,10 +2124,10 @@
         <v>17</v>
       </c>
       <c r="AQ9" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AR9" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AS9" t="n">
         <v>25</v>
@@ -2075,7 +2142,7 @@
         <v>1</v>
       </c>
       <c r="AW9" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AX9" t="n">
         <v>4</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>2-23-2007-08</t>
+          <t>2008-02-23</t>
         </is>
       </c>
     </row>
@@ -2200,16 +2267,16 @@
         <v>2</v>
       </c>
       <c r="AD10" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="AE10" t="n">
         <v>11</v>
       </c>
       <c r="AF10" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AG10" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AH10" t="n">
         <v>18</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>2-23-2007-08</t>
+          <t>2008-02-23</t>
         </is>
       </c>
     </row>
@@ -2382,19 +2449,19 @@
         <v>3.6</v>
       </c>
       <c r="AD11" t="n">
+        <v>3</v>
+      </c>
+      <c r="AE11" t="n">
         <v>8</v>
-      </c>
-      <c r="AE11" t="n">
-        <v>9</v>
       </c>
       <c r="AF11" t="n">
         <v>8</v>
       </c>
       <c r="AG11" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AH11" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AI11" t="n">
         <v>15</v>
@@ -2439,7 +2506,7 @@
         <v>13</v>
       </c>
       <c r="AW11" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AX11" t="n">
         <v>5</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>2-23-2007-08</t>
+          <t>2008-02-23</t>
         </is>
       </c>
     </row>
@@ -2486,22 +2553,22 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E12" t="n">
         <v>22</v>
       </c>
       <c r="F12" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G12" t="n">
-        <v>0.393</v>
+        <v>0.4</v>
       </c>
       <c r="H12" t="n">
         <v>48.3</v>
       </c>
       <c r="I12" t="n">
-        <v>37.5</v>
+        <v>37.6</v>
       </c>
       <c r="J12" t="n">
         <v>85.5</v>
@@ -2513,34 +2580,34 @@
         <v>8.9</v>
       </c>
       <c r="M12" t="n">
-        <v>24.4</v>
+        <v>24.3</v>
       </c>
       <c r="N12" t="n">
-        <v>0.363</v>
+        <v>0.365</v>
       </c>
       <c r="O12" t="n">
         <v>18.6</v>
       </c>
       <c r="P12" t="n">
-        <v>24.2</v>
+        <v>24.1</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.768</v>
+        <v>0.77</v>
       </c>
       <c r="R12" t="n">
-        <v>11.3</v>
+        <v>11.5</v>
       </c>
       <c r="S12" t="n">
         <v>32.3</v>
       </c>
       <c r="T12" t="n">
-        <v>43.6</v>
+        <v>43.8</v>
       </c>
       <c r="U12" t="n">
         <v>22.9</v>
       </c>
       <c r="V12" t="n">
-        <v>15.7</v>
+        <v>15.8</v>
       </c>
       <c r="W12" t="n">
         <v>7.5</v>
@@ -2555,13 +2622,13 @@
         <v>23.9</v>
       </c>
       <c r="AA12" t="n">
-        <v>21.8</v>
+        <v>21.7</v>
       </c>
       <c r="AB12" t="n">
-        <v>102.4</v>
+        <v>102.6</v>
       </c>
       <c r="AC12" t="n">
-        <v>-2.6</v>
+        <v>-2.5</v>
       </c>
       <c r="AD12" t="n">
         <v>3</v>
@@ -2576,7 +2643,7 @@
         <v>22</v>
       </c>
       <c r="AH12" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AI12" t="n">
         <v>8</v>
@@ -2585,7 +2652,7 @@
         <v>2</v>
       </c>
       <c r="AK12" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AL12" t="n">
         <v>3</v>
@@ -2609,7 +2676,7 @@
         <v>17</v>
       </c>
       <c r="AS12" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AT12" t="n">
         <v>7</v>
@@ -2621,13 +2688,13 @@
         <v>27</v>
       </c>
       <c r="AW12" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AX12" t="n">
         <v>10</v>
       </c>
       <c r="AY12" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AZ12" t="n">
         <v>29</v>
@@ -2639,7 +2706,7 @@
         <v>7</v>
       </c>
       <c r="BC12" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="BD12" t="n">
         <v>10</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>2-23-2007-08</t>
+          <t>2008-02-23</t>
         </is>
       </c>
     </row>
@@ -2668,16 +2735,16 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E13" t="n">
         <v>19</v>
       </c>
       <c r="F13" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G13" t="n">
-        <v>0.358</v>
+        <v>0.365</v>
       </c>
       <c r="H13" t="n">
         <v>48.2</v>
@@ -2689,16 +2756,16 @@
         <v>78.7</v>
       </c>
       <c r="K13" t="n">
-        <v>0.441</v>
+        <v>0.44</v>
       </c>
       <c r="L13" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="M13" t="n">
         <v>12.5</v>
       </c>
       <c r="N13" t="n">
-        <v>0.336</v>
+        <v>0.342</v>
       </c>
       <c r="O13" t="n">
         <v>21.1</v>
@@ -2707,25 +2774,25 @@
         <v>26.6</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.793</v>
+        <v>0.794</v>
       </c>
       <c r="R13" t="n">
         <v>9.4</v>
       </c>
       <c r="S13" t="n">
-        <v>31</v>
+        <v>30.9</v>
       </c>
       <c r="T13" t="n">
-        <v>40.4</v>
+        <v>40.3</v>
       </c>
       <c r="U13" t="n">
-        <v>21.4</v>
+        <v>21.3</v>
       </c>
       <c r="V13" t="n">
         <v>14.4</v>
       </c>
       <c r="W13" t="n">
-        <v>7</v>
+        <v>7.1</v>
       </c>
       <c r="X13" t="n">
         <v>5.1</v>
@@ -2734,7 +2801,7 @@
         <v>4.9</v>
       </c>
       <c r="Z13" t="n">
-        <v>22</v>
+        <v>21.9</v>
       </c>
       <c r="AA13" t="n">
         <v>21.9</v>
@@ -2743,10 +2810,10 @@
         <v>94.7</v>
       </c>
       <c r="AC13" t="n">
-        <v>-4.3</v>
+        <v>-4</v>
       </c>
       <c r="AD13" t="n">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="AE13" t="n">
         <v>24</v>
@@ -2755,10 +2822,10 @@
         <v>22</v>
       </c>
       <c r="AG13" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AH13" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AI13" t="n">
         <v>29</v>
@@ -2776,10 +2843,10 @@
         <v>27</v>
       </c>
       <c r="AN13" t="n">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="AO13" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AP13" t="n">
         <v>9</v>
@@ -2791,34 +2858,34 @@
         <v>28</v>
       </c>
       <c r="AS13" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AT13" t="n">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="AU13" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AV13" t="n">
         <v>11</v>
       </c>
       <c r="AW13" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AX13" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AY13" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AZ13" t="n">
         <v>22</v>
       </c>
       <c r="BA13" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BB13" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="BC13" t="n">
         <v>22</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>2-23-2007-08</t>
+          <t>2008-02-23</t>
         </is>
       </c>
     </row>
@@ -2850,16 +2917,16 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E14" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F14" t="n">
         <v>17</v>
       </c>
       <c r="G14" t="n">
-        <v>0.6909999999999999</v>
+        <v>0.6850000000000001</v>
       </c>
       <c r="H14" t="n">
         <v>48.1</v>
@@ -2874,22 +2941,22 @@
         <v>0.48</v>
       </c>
       <c r="L14" t="n">
-        <v>7.4</v>
+        <v>7.3</v>
       </c>
       <c r="M14" t="n">
-        <v>19.9</v>
+        <v>19.8</v>
       </c>
       <c r="N14" t="n">
         <v>0.37</v>
       </c>
       <c r="O14" t="n">
-        <v>21.7</v>
+        <v>21.6</v>
       </c>
       <c r="P14" t="n">
-        <v>28.6</v>
+        <v>28.5</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.759</v>
+        <v>0.76</v>
       </c>
       <c r="R14" t="n">
         <v>10.7</v>
@@ -2898,16 +2965,16 @@
         <v>33.3</v>
       </c>
       <c r="T14" t="n">
-        <v>43.9</v>
+        <v>44</v>
       </c>
       <c r="U14" t="n">
-        <v>23.7</v>
+        <v>23.6</v>
       </c>
       <c r="V14" t="n">
-        <v>14.8</v>
+        <v>14.9</v>
       </c>
       <c r="W14" t="n">
-        <v>8.199999999999999</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="X14" t="n">
         <v>5.1</v>
@@ -2916,28 +2983,28 @@
         <v>4.7</v>
       </c>
       <c r="Z14" t="n">
-        <v>21</v>
+        <v>20.9</v>
       </c>
       <c r="AA14" t="n">
-        <v>23</v>
+        <v>22.9</v>
       </c>
       <c r="AB14" t="n">
-        <v>107.9</v>
+        <v>107.8</v>
       </c>
       <c r="AC14" t="n">
-        <v>6.9</v>
+        <v>6.7</v>
       </c>
       <c r="AD14" t="n">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="AE14" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AF14" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AG14" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AH14" t="n">
         <v>26</v>
@@ -2964,10 +3031,10 @@
         <v>3</v>
       </c>
       <c r="AP14" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AQ14" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AR14" t="n">
         <v>20</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>2-23-2007-08</t>
+          <t>2008-02-23</t>
         </is>
       </c>
     </row>
@@ -3110,7 +3177,7 @@
         <v>-5.3</v>
       </c>
       <c r="AD15" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="AE15" t="n">
         <v>28</v>
@@ -3140,7 +3207,7 @@
         <v>5</v>
       </c>
       <c r="AN15" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AO15" t="n">
         <v>16</v>
@@ -3170,7 +3237,7 @@
         <v>29</v>
       </c>
       <c r="AX15" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AY15" t="n">
         <v>13</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>2-23-2007-08</t>
+          <t>2008-02-23</t>
         </is>
       </c>
     </row>
@@ -3214,64 +3281,64 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E16" t="n">
         <v>9</v>
       </c>
       <c r="F16" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G16" t="n">
-        <v>0.167</v>
+        <v>0.17</v>
       </c>
       <c r="H16" t="n">
-        <v>48.5</v>
+        <v>48.4</v>
       </c>
       <c r="I16" t="n">
-        <v>35.3</v>
+        <v>35.2</v>
       </c>
       <c r="J16" t="n">
-        <v>77.7</v>
+        <v>77.59999999999999</v>
       </c>
       <c r="K16" t="n">
         <v>0.454</v>
       </c>
       <c r="L16" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="M16" t="n">
-        <v>14.1</v>
+        <v>14</v>
       </c>
       <c r="N16" t="n">
         <v>0.338</v>
       </c>
       <c r="O16" t="n">
-        <v>17.9</v>
+        <v>18</v>
       </c>
       <c r="P16" t="n">
-        <v>24.9</v>
+        <v>25.1</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.719</v>
+        <v>0.716</v>
       </c>
       <c r="R16" t="n">
         <v>9.199999999999999</v>
       </c>
       <c r="S16" t="n">
-        <v>28.9</v>
+        <v>29</v>
       </c>
       <c r="T16" t="n">
-        <v>38.2</v>
+        <v>38.3</v>
       </c>
       <c r="U16" t="n">
         <v>20.2</v>
       </c>
       <c r="V16" t="n">
-        <v>15.1</v>
+        <v>15</v>
       </c>
       <c r="W16" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="X16" t="n">
         <v>4.3</v>
@@ -3280,10 +3347,10 @@
         <v>3.8</v>
       </c>
       <c r="Z16" t="n">
-        <v>20.5</v>
+        <v>20.6</v>
       </c>
       <c r="AA16" t="n">
-        <v>21.3</v>
+        <v>21.4</v>
       </c>
       <c r="AB16" t="n">
         <v>93.2</v>
@@ -3292,7 +3359,7 @@
         <v>-7.7</v>
       </c>
       <c r="AD16" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="AE16" t="n">
         <v>30</v>
@@ -3304,7 +3371,7 @@
         <v>30</v>
       </c>
       <c r="AH16" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="AI16" t="n">
         <v>26</v>
@@ -3322,13 +3389,13 @@
         <v>25</v>
       </c>
       <c r="AN16" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AO16" t="n">
         <v>22</v>
       </c>
       <c r="AP16" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AQ16" t="n">
         <v>28</v>
@@ -3337,7 +3404,7 @@
         <v>29</v>
       </c>
       <c r="AS16" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AT16" t="n">
         <v>30</v>
@@ -3346,10 +3413,10 @@
         <v>21</v>
       </c>
       <c r="AV16" t="n">
+        <v>17</v>
+      </c>
+      <c r="AW16" t="n">
         <v>18</v>
-      </c>
-      <c r="AW16" t="n">
-        <v>17</v>
       </c>
       <c r="AX16" t="n">
         <v>24</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>2-23-2007-08</t>
+          <t>2008-02-23</t>
         </is>
       </c>
     </row>
@@ -3396,16 +3463,16 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E17" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F17" t="n">
         <v>35</v>
       </c>
       <c r="G17" t="n">
-        <v>0.375</v>
+        <v>0.364</v>
       </c>
       <c r="H17" t="n">
         <v>48.4</v>
@@ -3414,7 +3481,7 @@
         <v>36.2</v>
       </c>
       <c r="J17" t="n">
-        <v>80.7</v>
+        <v>80.5</v>
       </c>
       <c r="K17" t="n">
         <v>0.449</v>
@@ -3429,22 +3496,22 @@
         <v>0.339</v>
       </c>
       <c r="O17" t="n">
-        <v>17.1</v>
+        <v>16.8</v>
       </c>
       <c r="P17" t="n">
-        <v>22.9</v>
+        <v>22.7</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.744</v>
+        <v>0.743</v>
       </c>
       <c r="R17" t="n">
-        <v>12</v>
+        <v>11.9</v>
       </c>
       <c r="S17" t="n">
-        <v>28.5</v>
+        <v>28.4</v>
       </c>
       <c r="T17" t="n">
-        <v>40.5</v>
+        <v>40.3</v>
       </c>
       <c r="U17" t="n">
         <v>21.2</v>
@@ -3459,19 +3526,19 @@
         <v>4.6</v>
       </c>
       <c r="Y17" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="Z17" t="n">
         <v>21.6</v>
       </c>
       <c r="AA17" t="n">
-        <v>20.3</v>
+        <v>20.2</v>
       </c>
       <c r="AB17" t="n">
-        <v>95</v>
+        <v>94.7</v>
       </c>
       <c r="AC17" t="n">
-        <v>-6.5</v>
+        <v>-6.7</v>
       </c>
       <c r="AD17" t="n">
         <v>3</v>
@@ -3483,13 +3550,13 @@
         <v>24</v>
       </c>
       <c r="AG17" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AH17" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AI17" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AJ17" t="n">
         <v>16</v>
@@ -3501,7 +3568,7 @@
         <v>22</v>
       </c>
       <c r="AM17" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AN17" t="n">
         <v>23</v>
@@ -3510,19 +3577,19 @@
         <v>25</v>
       </c>
       <c r="AP17" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AQ17" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AR17" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AS17" t="n">
         <v>30</v>
       </c>
       <c r="AT17" t="n">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="AU17" t="n">
         <v>19</v>
@@ -3537,7 +3604,7 @@
         <v>18</v>
       </c>
       <c r="AY17" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AZ17" t="n">
         <v>19</v>
@@ -3546,10 +3613,10 @@
         <v>22</v>
       </c>
       <c r="BB17" t="n">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="BC17" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="BD17" t="n">
         <v>10</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>2-23-2007-08</t>
+          <t>2008-02-23</t>
         </is>
       </c>
     </row>
@@ -3656,7 +3723,7 @@
         <v>-7.2</v>
       </c>
       <c r="AD18" t="n">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="AE18" t="n">
         <v>29</v>
@@ -3683,10 +3750,10 @@
         <v>24</v>
       </c>
       <c r="AM18" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AN18" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AO18" t="n">
         <v>30</v>
@@ -3695,7 +3762,7 @@
         <v>28</v>
       </c>
       <c r="AQ18" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AR18" t="n">
         <v>6</v>
@@ -3713,7 +3780,7 @@
         <v>22</v>
       </c>
       <c r="AW18" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AX18" t="n">
         <v>29</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>2-23-2007-08</t>
+          <t>2008-02-23</t>
         </is>
       </c>
     </row>
@@ -3760,19 +3827,19 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E19" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F19" t="n">
         <v>31</v>
       </c>
       <c r="G19" t="n">
-        <v>0.446</v>
+        <v>0.436</v>
       </c>
       <c r="H19" t="n">
-        <v>48.4</v>
+        <v>48.5</v>
       </c>
       <c r="I19" t="n">
         <v>34.1</v>
@@ -3781,34 +3848,34 @@
         <v>77.90000000000001</v>
       </c>
       <c r="K19" t="n">
-        <v>0.438</v>
+        <v>0.437</v>
       </c>
       <c r="L19" t="n">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="M19" t="n">
-        <v>16.9</v>
+        <v>17</v>
       </c>
       <c r="N19" t="n">
-        <v>0.34</v>
+        <v>0.339</v>
       </c>
       <c r="O19" t="n">
-        <v>20.3</v>
+        <v>20.2</v>
       </c>
       <c r="P19" t="n">
         <v>28</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.726</v>
+        <v>0.724</v>
       </c>
       <c r="R19" t="n">
         <v>11.6</v>
       </c>
       <c r="S19" t="n">
-        <v>31.1</v>
+        <v>30.8</v>
       </c>
       <c r="T19" t="n">
-        <v>42.7</v>
+        <v>42.5</v>
       </c>
       <c r="U19" t="n">
         <v>23.8</v>
@@ -3832,10 +3899,10 @@
         <v>22.6</v>
       </c>
       <c r="AB19" t="n">
-        <v>94.2</v>
+        <v>94.09999999999999</v>
       </c>
       <c r="AC19" t="n">
-        <v>-4.9</v>
+        <v>-5.1</v>
       </c>
       <c r="AD19" t="n">
         <v>3</v>
@@ -3844,13 +3911,13 @@
         <v>18</v>
       </c>
       <c r="AF19" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AG19" t="n">
         <v>18</v>
       </c>
       <c r="AH19" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AI19" t="n">
         <v>30</v>
@@ -3868,7 +3935,7 @@
         <v>19</v>
       </c>
       <c r="AN19" t="n">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="AO19" t="n">
         <v>10</v>
@@ -3877,16 +3944,16 @@
         <v>5</v>
       </c>
       <c r="AQ19" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AR19" t="n">
         <v>15</v>
       </c>
       <c r="AS19" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AT19" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AU19" t="n">
         <v>3</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>2-23-2007-08</t>
+          <t>2008-02-23</t>
         </is>
       </c>
     </row>
@@ -3942,94 +4009,94 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E20" t="n">
         <v>37</v>
       </c>
       <c r="F20" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G20" t="n">
-        <v>0.6850000000000001</v>
+        <v>0.698</v>
       </c>
       <c r="H20" t="n">
         <v>48.5</v>
       </c>
       <c r="I20" t="n">
-        <v>38.3</v>
+        <v>38.4</v>
       </c>
       <c r="J20" t="n">
-        <v>83.3</v>
+        <v>83.40000000000001</v>
       </c>
       <c r="K20" t="n">
         <v>0.46</v>
       </c>
       <c r="L20" t="n">
-        <v>7.7</v>
+        <v>7.8</v>
       </c>
       <c r="M20" t="n">
         <v>20.1</v>
       </c>
       <c r="N20" t="n">
-        <v>0.386</v>
+        <v>0.385</v>
       </c>
       <c r="O20" t="n">
-        <v>15.5</v>
+        <v>15.6</v>
       </c>
       <c r="P20" t="n">
-        <v>20</v>
+        <v>20.1</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.775</v>
+        <v>0.776</v>
       </c>
       <c r="R20" t="n">
-        <v>11.6</v>
+        <v>11.7</v>
       </c>
       <c r="S20" t="n">
-        <v>30.8</v>
+        <v>30.9</v>
       </c>
       <c r="T20" t="n">
-        <v>42.4</v>
+        <v>42.6</v>
       </c>
       <c r="U20" t="n">
-        <v>21.4</v>
+        <v>21.6</v>
       </c>
       <c r="V20" t="n">
-        <v>12.3</v>
+        <v>12.4</v>
       </c>
       <c r="W20" t="n">
-        <v>7.6</v>
+        <v>7.7</v>
       </c>
       <c r="X20" t="n">
         <v>4</v>
       </c>
       <c r="Y20" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="Z20" t="n">
-        <v>18.9</v>
+        <v>18.8</v>
       </c>
       <c r="AA20" t="n">
-        <v>18.7</v>
+        <v>18.8</v>
       </c>
       <c r="AB20" t="n">
-        <v>99.90000000000001</v>
+        <v>100.1</v>
       </c>
       <c r="AC20" t="n">
-        <v>5.1</v>
+        <v>5.3</v>
       </c>
       <c r="AD20" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="AE20" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AF20" t="n">
         <v>3</v>
       </c>
       <c r="AG20" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AH20" t="n">
         <v>6</v>
@@ -4062,16 +4129,16 @@
         <v>7</v>
       </c>
       <c r="AR20" t="n">
+        <v>13</v>
+      </c>
+      <c r="AS20" t="n">
         <v>14</v>
       </c>
-      <c r="AS20" t="n">
-        <v>15</v>
-      </c>
       <c r="AT20" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AU20" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="AV20" t="n">
         <v>3</v>
@@ -4080,7 +4147,7 @@
         <v>10</v>
       </c>
       <c r="AX20" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AY20" t="n">
         <v>9</v>
@@ -4092,10 +4159,10 @@
         <v>28</v>
       </c>
       <c r="BB20" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BC20" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BD20" t="n">
         <v>10</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>2-23-2007-08</t>
+          <t>2008-02-23</t>
         </is>
       </c>
     </row>
@@ -4202,7 +4269,7 @@
         <v>-6</v>
       </c>
       <c r="AD21" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="AE21" t="n">
         <v>26</v>
@@ -4274,7 +4341,7 @@
         <v>15</v>
       </c>
       <c r="BB21" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="BC21" t="n">
         <v>26</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>2-23-2007-08</t>
+          <t>2008-02-23</t>
         </is>
       </c>
     </row>
@@ -4387,10 +4454,10 @@
         <v>1</v>
       </c>
       <c r="AE22" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AF22" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AG22" t="n">
         <v>10</v>
@@ -4426,13 +4493,13 @@
         <v>23</v>
       </c>
       <c r="AR22" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AS22" t="n">
         <v>4</v>
       </c>
       <c r="AT22" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AU22" t="n">
         <v>22</v>
@@ -4444,7 +4511,7 @@
         <v>27</v>
       </c>
       <c r="AX22" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AY22" t="n">
         <v>8</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>2-23-2007-08</t>
+          <t>2008-02-23</t>
         </is>
       </c>
     </row>
@@ -4488,19 +4555,19 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E23" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F23" t="n">
         <v>32</v>
       </c>
       <c r="G23" t="n">
-        <v>0.439</v>
+        <v>0.429</v>
       </c>
       <c r="H23" t="n">
-        <v>48.3</v>
+        <v>48.2</v>
       </c>
       <c r="I23" t="n">
         <v>36.6</v>
@@ -4509,7 +4576,7 @@
         <v>80.2</v>
       </c>
       <c r="K23" t="n">
-        <v>0.457</v>
+        <v>0.456</v>
       </c>
       <c r="L23" t="n">
         <v>3.6</v>
@@ -4518,7 +4585,7 @@
         <v>11.4</v>
       </c>
       <c r="N23" t="n">
-        <v>0.314</v>
+        <v>0.316</v>
       </c>
       <c r="O23" t="n">
         <v>18.1</v>
@@ -4530,19 +4597,19 @@
         <v>0.703</v>
       </c>
       <c r="R23" t="n">
-        <v>13</v>
+        <v>12.9</v>
       </c>
       <c r="S23" t="n">
-        <v>29.1</v>
+        <v>29</v>
       </c>
       <c r="T23" t="n">
-        <v>42.1</v>
+        <v>41.9</v>
       </c>
       <c r="U23" t="n">
         <v>20</v>
       </c>
       <c r="V23" t="n">
-        <v>15.2</v>
+        <v>15.1</v>
       </c>
       <c r="W23" t="n">
         <v>8.4</v>
@@ -4554,19 +4621,19 @@
         <v>4.8</v>
       </c>
       <c r="Z23" t="n">
-        <v>20</v>
+        <v>20.1</v>
       </c>
       <c r="AA23" t="n">
         <v>20.8</v>
       </c>
       <c r="AB23" t="n">
-        <v>95</v>
+        <v>94.90000000000001</v>
       </c>
       <c r="AC23" t="n">
-        <v>-0.4</v>
+        <v>-0.5</v>
       </c>
       <c r="AD23" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE23" t="n">
         <v>18</v>
@@ -4575,10 +4642,10 @@
         <v>20</v>
       </c>
       <c r="AG23" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AH23" t="n">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="AI23" t="n">
         <v>12</v>
@@ -4608,10 +4675,10 @@
         <v>30</v>
       </c>
       <c r="AR23" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AS23" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AT23" t="n">
         <v>16</v>
@@ -4620,7 +4687,7 @@
         <v>23</v>
       </c>
       <c r="AV23" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AW23" t="n">
         <v>5</v>
@@ -4638,7 +4705,7 @@
         <v>19</v>
       </c>
       <c r="BB23" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="BC23" t="n">
         <v>15</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>2-23-2007-08</t>
+          <t>2008-02-23</t>
         </is>
       </c>
     </row>
@@ -4748,16 +4815,16 @@
         <v>5.6</v>
       </c>
       <c r="AD24" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="AE24" t="n">
         <v>3</v>
       </c>
       <c r="AF24" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AG24" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AH24" t="n">
         <v>18</v>
@@ -4784,7 +4851,7 @@
         <v>21</v>
       </c>
       <c r="AP24" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AQ24" t="n">
         <v>5</v>
@@ -4793,7 +4860,7 @@
         <v>30</v>
       </c>
       <c r="AS24" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AT24" t="n">
         <v>20</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>2-23-2007-08</t>
+          <t>2008-02-23</t>
         </is>
       </c>
     </row>
@@ -4930,7 +4997,7 @@
         <v>-0.5</v>
       </c>
       <c r="AD25" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="AE25" t="n">
         <v>14</v>
@@ -4945,7 +5012,7 @@
         <v>1</v>
       </c>
       <c r="AI25" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AJ25" t="n">
         <v>23</v>
@@ -4954,7 +5021,7 @@
         <v>17</v>
       </c>
       <c r="AL25" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AM25" t="n">
         <v>18</v>
@@ -4969,16 +5036,16 @@
         <v>22</v>
       </c>
       <c r="AQ25" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AR25" t="n">
         <v>21</v>
       </c>
       <c r="AS25" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AT25" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AU25" t="n">
         <v>18</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>2-23-2007-08</t>
+          <t>2008-02-23</t>
         </is>
       </c>
     </row>
@@ -5112,7 +5179,7 @@
         <v>-1.5</v>
       </c>
       <c r="AD26" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="AE26" t="n">
         <v>16</v>
@@ -5127,7 +5194,7 @@
         <v>16</v>
       </c>
       <c r="AI26" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AJ26" t="n">
         <v>21</v>
@@ -5142,7 +5209,7 @@
         <v>17</v>
       </c>
       <c r="AN26" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AO26" t="n">
         <v>2</v>
@@ -5160,7 +5227,7 @@
         <v>20</v>
       </c>
       <c r="AT26" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AU26" t="n">
         <v>29</v>
@@ -5172,7 +5239,7 @@
         <v>7</v>
       </c>
       <c r="AX26" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AY26" t="n">
         <v>26</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>2-23-2007-08</t>
+          <t>2008-02-23</t>
         </is>
       </c>
     </row>
@@ -5216,22 +5283,22 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E27" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F27" t="n">
         <v>17</v>
       </c>
       <c r="G27" t="n">
-        <v>0.6850000000000001</v>
+        <v>0.679</v>
       </c>
       <c r="H27" t="n">
         <v>48.2</v>
       </c>
       <c r="I27" t="n">
-        <v>35.9</v>
+        <v>35.8</v>
       </c>
       <c r="J27" t="n">
         <v>78.3</v>
@@ -5246,22 +5313,22 @@
         <v>21</v>
       </c>
       <c r="N27" t="n">
-        <v>0.378</v>
+        <v>0.379</v>
       </c>
       <c r="O27" t="n">
         <v>16.6</v>
       </c>
       <c r="P27" t="n">
-        <v>21.9</v>
+        <v>22</v>
       </c>
       <c r="Q27" t="n">
-        <v>0.76</v>
+        <v>0.756</v>
       </c>
       <c r="R27" t="n">
         <v>9.800000000000001</v>
       </c>
       <c r="S27" t="n">
-        <v>31.6</v>
+        <v>31.5</v>
       </c>
       <c r="T27" t="n">
         <v>41.4</v>
@@ -5285,28 +5352,28 @@
         <v>18.6</v>
       </c>
       <c r="AA27" t="n">
-        <v>19.9</v>
+        <v>19.8</v>
       </c>
       <c r="AB27" t="n">
-        <v>96.3</v>
+        <v>96.2</v>
       </c>
       <c r="AC27" t="n">
         <v>5.1</v>
       </c>
       <c r="AD27" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="AE27" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AF27" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AG27" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AH27" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AI27" t="n">
         <v>22</v>
@@ -5315,7 +5382,7 @@
         <v>27</v>
       </c>
       <c r="AK27" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AL27" t="n">
         <v>5</v>
@@ -5324,7 +5391,7 @@
         <v>6</v>
       </c>
       <c r="AN27" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AO27" t="n">
         <v>27</v>
@@ -5333,10 +5400,10 @@
         <v>27</v>
       </c>
       <c r="AQ27" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="AR27" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AS27" t="n">
         <v>9</v>
@@ -5363,13 +5430,13 @@
         <v>1</v>
       </c>
       <c r="BA27" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="BB27" t="n">
         <v>18</v>
       </c>
       <c r="BC27" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BD27" t="n">
         <v>10</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>2-23-2007-08</t>
+          <t>2008-02-23</t>
         </is>
       </c>
     </row>
@@ -5476,7 +5543,7 @@
         <v>-6.6</v>
       </c>
       <c r="AD28" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="AE28" t="n">
         <v>27</v>
@@ -5518,7 +5585,7 @@
         <v>11</v>
       </c>
       <c r="AR28" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AS28" t="n">
         <v>1</v>
@@ -5527,7 +5594,7 @@
         <v>1</v>
       </c>
       <c r="AU28" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AV28" t="n">
         <v>28</v>
@@ -5551,7 +5618,7 @@
         <v>17</v>
       </c>
       <c r="BC28" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="BD28" t="n">
         <v>10</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>2-23-2007-08</t>
+          <t>2008-02-23</t>
         </is>
       </c>
     </row>
@@ -5658,7 +5725,7 @@
         <v>4</v>
       </c>
       <c r="AD29" t="n">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="AE29" t="n">
         <v>14</v>
@@ -5670,7 +5737,7 @@
         <v>14</v>
       </c>
       <c r="AH29" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AI29" t="n">
         <v>7</v>
@@ -5715,7 +5782,7 @@
         <v>2</v>
       </c>
       <c r="AW29" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AX29" t="n">
         <v>28</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>2-23-2007-08</t>
+          <t>2008-02-23</t>
         </is>
       </c>
     </row>
@@ -5762,16 +5829,16 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E30" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F30" t="n">
         <v>20</v>
       </c>
       <c r="G30" t="n">
-        <v>0.643</v>
+        <v>0.636</v>
       </c>
       <c r="H30" t="n">
         <v>48.1</v>
@@ -5780,7 +5847,7 @@
         <v>39.8</v>
       </c>
       <c r="J30" t="n">
-        <v>80.90000000000001</v>
+        <v>80.8</v>
       </c>
       <c r="K30" t="n">
         <v>0.492</v>
@@ -5792,49 +5859,49 @@
         <v>12.2</v>
       </c>
       <c r="N30" t="n">
-        <v>0.361</v>
+        <v>0.362</v>
       </c>
       <c r="O30" t="n">
-        <v>21.5</v>
+        <v>21.6</v>
       </c>
       <c r="P30" t="n">
-        <v>28.5</v>
+        <v>28.7</v>
       </c>
       <c r="Q30" t="n">
-        <v>0.755</v>
+        <v>0.753</v>
       </c>
       <c r="R30" t="n">
         <v>11.6</v>
       </c>
       <c r="S30" t="n">
-        <v>29.2</v>
+        <v>29.3</v>
       </c>
       <c r="T30" t="n">
-        <v>40.8</v>
+        <v>40.9</v>
       </c>
       <c r="U30" t="n">
         <v>26.3</v>
       </c>
       <c r="V30" t="n">
-        <v>15.2</v>
+        <v>15.3</v>
       </c>
       <c r="W30" t="n">
-        <v>9.300000000000001</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="X30" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="Y30" t="n">
         <v>5.7</v>
       </c>
       <c r="Z30" t="n">
-        <v>24.5</v>
+        <v>24.6</v>
       </c>
       <c r="AA30" t="n">
-        <v>23.3</v>
+        <v>23.4</v>
       </c>
       <c r="AB30" t="n">
-        <v>105.5</v>
+        <v>105.6</v>
       </c>
       <c r="AC30" t="n">
         <v>5.8</v>
@@ -5843,7 +5910,7 @@
         <v>3</v>
       </c>
       <c r="AE30" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AF30" t="n">
         <v>8</v>
@@ -5852,7 +5919,7 @@
         <v>8</v>
       </c>
       <c r="AH30" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="AI30" t="n">
         <v>3</v>
@@ -5870,13 +5937,13 @@
         <v>28</v>
       </c>
       <c r="AN30" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AO30" t="n">
         <v>4</v>
       </c>
       <c r="AP30" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AQ30" t="n">
         <v>17</v>
@@ -5885,7 +5952,7 @@
         <v>16</v>
       </c>
       <c r="AS30" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AT30" t="n">
         <v>23</v>
@@ -5900,7 +5967,7 @@
         <v>2</v>
       </c>
       <c r="AX30" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AY30" t="n">
         <v>28</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>2-23-2007-08</t>
+          <t>2008-02-23</t>
         </is>
       </c>
     </row>
@@ -5944,25 +6011,25 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E31" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F31" t="n">
         <v>29</v>
       </c>
       <c r="G31" t="n">
-        <v>0.473</v>
+        <v>0.463</v>
       </c>
       <c r="H31" t="n">
-        <v>48.5</v>
+        <v>48.6</v>
       </c>
       <c r="I31" t="n">
-        <v>36.4</v>
+        <v>36.2</v>
       </c>
       <c r="J31" t="n">
-        <v>82</v>
+        <v>81.8</v>
       </c>
       <c r="K31" t="n">
         <v>0.443</v>
@@ -5971,40 +6038,40 @@
         <v>6.6</v>
       </c>
       <c r="M31" t="n">
-        <v>19.3</v>
+        <v>19.4</v>
       </c>
       <c r="N31" t="n">
-        <v>0.341</v>
+        <v>0.34</v>
       </c>
       <c r="O31" t="n">
-        <v>19.3</v>
+        <v>19.4</v>
       </c>
       <c r="P31" t="n">
-        <v>24.2</v>
+        <v>24.3</v>
       </c>
       <c r="Q31" t="n">
         <v>0.796</v>
       </c>
       <c r="R31" t="n">
-        <v>12.5</v>
+        <v>12.3</v>
       </c>
       <c r="S31" t="n">
-        <v>29.7</v>
+        <v>29.9</v>
       </c>
       <c r="T31" t="n">
-        <v>42.3</v>
+        <v>42.2</v>
       </c>
       <c r="U31" t="n">
-        <v>19.1</v>
+        <v>19</v>
       </c>
       <c r="V31" t="n">
-        <v>13.7</v>
+        <v>13.9</v>
       </c>
       <c r="W31" t="n">
-        <v>7.8</v>
+        <v>7.7</v>
       </c>
       <c r="X31" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="Y31" t="n">
         <v>4.4</v>
@@ -6016,16 +6083,16 @@
         <v>20.1</v>
       </c>
       <c r="AB31" t="n">
-        <v>98.59999999999999</v>
+        <v>98.40000000000001</v>
       </c>
       <c r="AC31" t="n">
-        <v>0.1</v>
+        <v>-0.2</v>
       </c>
       <c r="AD31" t="n">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="AE31" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AF31" t="n">
         <v>17</v>
@@ -6037,7 +6104,7 @@
         <v>5</v>
       </c>
       <c r="AI31" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AJ31" t="n">
         <v>11</v>
@@ -6052,7 +6119,7 @@
         <v>11</v>
       </c>
       <c r="AN31" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AO31" t="n">
         <v>11</v>
@@ -6067,7 +6134,7 @@
         <v>5</v>
       </c>
       <c r="AS31" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AT31" t="n">
         <v>11</v>
@@ -6082,7 +6149,7 @@
         <v>8</v>
       </c>
       <c r="AX31" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AY31" t="n">
         <v>10</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>2-23-2007-08</t>
+          <t>2008-02-23</t>
         </is>
       </c>
     </row>
